--- a/C-kod/Karta.xlsx
+++ b/C-kod/Karta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eletr654\Desktop\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eletr654\Desktop\Git\TSEA56-Grupp-4\C-kod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,12 +57,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -70,6 +64,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,17 +180,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,77 +474,79 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" customWidth="1"/>
     <col min="4" max="6" width="5.42578125" customWidth="1"/>
     <col min="7" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="10" width="5.42578125" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>16</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>15</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>14</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>13</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>12</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>11</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>10</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <v>9</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>8</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="14">
+      <c r="C5" s="19"/>
+      <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="3">
@@ -557,175 +559,173 @@
       <c r="J5" s="3"/>
       <c r="K5" s="8"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>16</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>17</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="8"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="17">
+      <c r="M7" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>18</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="14">
+      <c r="C8" s="19"/>
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>9</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="17">
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="15">
+      <c r="E9" s="17"/>
+      <c r="F9" s="14">
         <v>8</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14">
+      <c r="G9" s="17"/>
+      <c r="H9" s="13">
         <v>10</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="8"/>
       <c r="K9" s="3"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="3">
         <v>11</v>
       </c>
-      <c r="I10" s="3">
-        <v>12</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="16">
+      <c r="G11" s="18"/>
+      <c r="H11" s="23">
         <v>12</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>16</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>15</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>14</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>13</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>12</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="16">
         <v>11</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>10</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <v>9</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="16">
         <v>8</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="16">
         <v>7</v>
       </c>
     </row>

--- a/C-kod/Karta.xlsx
+++ b/C-kod/Karta.xlsx
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,8 +41,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +79,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -166,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -191,6 +209,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M12"/>
+  <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +582,9 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="13">
+        <v>20</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
@@ -572,8 +604,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
@@ -592,7 +626,9 @@
         <v>4</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>18</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="8"/>
@@ -615,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G8" s="13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H8" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
@@ -647,7 +683,7 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="8"/>
@@ -667,9 +703,9 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="3">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="3"/>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
@@ -729,6 +765,256 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="15">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="16">
+        <v>12</v>
+      </c>
+      <c r="H16" s="16">
+        <v>11</v>
+      </c>
+      <c r="I16" s="16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="16">
+        <v>8</v>
+      </c>
+      <c r="L16" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="35">
+        <v>19</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="14">
+        <v>18</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="33">
+        <v>16</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>19</v>
+      </c>
+      <c r="G19" s="13">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13">
+        <v>17</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="13">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="13">
+        <v>16</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="13">
+        <v>5</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="13">
+        <v>15</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="13">
+        <v>6</v>
+      </c>
+      <c r="E22" s="13">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13">
+        <v>14</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>20</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="13">
+        <v>13</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="32">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="15">
+        <v>16</v>
+      </c>
+      <c r="D25" s="15">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16">
+        <v>14</v>
+      </c>
+      <c r="F25" s="16">
+        <v>13</v>
+      </c>
+      <c r="G25" s="16">
+        <v>12</v>
+      </c>
+      <c r="H25" s="16">
+        <v>11</v>
+      </c>
+      <c r="I25" s="16">
+        <v>10</v>
+      </c>
+      <c r="J25" s="16">
+        <v>9</v>
+      </c>
+      <c r="K25" s="16">
+        <v>8</v>
+      </c>
+      <c r="L25" s="16">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/C-kod/Karta.xlsx
+++ b/C-kod/Karta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eletr654\Desktop\Git\TSEA56-Grupp-4\C-kod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovgu777\Desktop\TSEA56-Grupp-4\C-kod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -221,6 +238,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,25 +525,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M25"/>
+  <dimension ref="B1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="10" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="4.140625" customWidth="1"/>
+    <col min="24" max="25" width="3.85546875" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15">
         <v>16</v>
       </c>
@@ -550,8 +596,38 @@
       <c r="L3" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P3" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>15</v>
+      </c>
+      <c r="R3" s="16">
+        <v>14</v>
+      </c>
+      <c r="S3" s="16">
+        <v>13</v>
+      </c>
+      <c r="T3" s="16">
+        <v>12</v>
+      </c>
+      <c r="U3" s="16">
+        <v>11</v>
+      </c>
+      <c r="V3" s="16">
+        <v>10</v>
+      </c>
+      <c r="W3" s="16">
+        <v>9</v>
+      </c>
+      <c r="X3" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>14</v>
       </c>
@@ -570,8 +646,24 @@
       <c r="M4" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="15">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>15</v>
       </c>
@@ -583,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3"/>
@@ -594,8 +686,26 @@
       <c r="M5" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="15">
+        <v>15</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="13">
+        <v>8</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>16</v>
       </c>
@@ -605,7 +715,7 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="3"/>
@@ -616,8 +726,26 @@
       <c r="M6" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="15">
+        <v>16</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="3">
+        <v>7</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>17</v>
       </c>
@@ -627,7 +755,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -638,8 +766,26 @@
       <c r="M7" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="15">
+        <v>17</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="3">
+        <v>6</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <v>18</v>
       </c>
@@ -651,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G8" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H8" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
@@ -666,8 +812,30 @@
       <c r="M8" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="15">
+        <v>18</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="3">
+        <v>5</v>
+      </c>
+      <c r="T8" s="13">
+        <v>4</v>
+      </c>
+      <c r="U8" s="13">
+        <v>3</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>19</v>
       </c>
@@ -683,7 +851,7 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="8"/>
@@ -692,8 +860,26 @@
       <c r="M9" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="21">
+        <v>19</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="13">
+        <v>2</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <v>20</v>
       </c>
@@ -703,7 +889,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="3"/>
@@ -712,8 +898,26 @@
       <c r="M10" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="15">
+        <v>20</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>21</v>
       </c>
@@ -732,8 +936,26 @@
       <c r="M11" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="15">
+        <v>21</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" s="15">
         <v>16</v>
       </c>
@@ -764,8 +986,38 @@
       <c r="L12" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>15</v>
+      </c>
+      <c r="R12" s="16">
+        <v>14</v>
+      </c>
+      <c r="S12" s="16">
+        <v>13</v>
+      </c>
+      <c r="T12" s="16">
+        <v>12</v>
+      </c>
+      <c r="U12" s="16">
+        <v>11</v>
+      </c>
+      <c r="V12" s="16">
+        <v>10</v>
+      </c>
+      <c r="W12" s="16">
+        <v>9</v>
+      </c>
+      <c r="X12" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="15">
         <v>16</v>
       </c>
@@ -796,8 +1048,38 @@
       <c r="L16" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P16" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>15</v>
+      </c>
+      <c r="R16" s="16">
+        <v>14</v>
+      </c>
+      <c r="S16" s="16">
+        <v>13</v>
+      </c>
+      <c r="T16" s="16">
+        <v>12</v>
+      </c>
+      <c r="U16" s="16">
+        <v>11</v>
+      </c>
+      <c r="V16" s="16">
+        <v>10</v>
+      </c>
+      <c r="W16" s="16">
+        <v>9</v>
+      </c>
+      <c r="X16" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>14</v>
       </c>
@@ -809,7 +1091,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
@@ -818,8 +1100,26 @@
       <c r="M17" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="15">
+        <v>14</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="35">
+        <v>7</v>
+      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -831,7 +1131,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="8"/>
@@ -840,8 +1140,26 @@
       <c r="M18" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="15">
+        <v>15</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="14">
+        <v>6</v>
+      </c>
+      <c r="V18" s="25"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="33">
         <v>16</v>
       </c>
@@ -855,13 +1173,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G19" s="13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -870,8 +1188,30 @@
       <c r="M19" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="33">
+        <v>16</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13">
+        <v>7</v>
+      </c>
+      <c r="T19" s="13">
+        <v>6</v>
+      </c>
+      <c r="U19" s="13">
+        <v>5</v>
+      </c>
+      <c r="V19" s="14"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>17</v>
       </c>
@@ -883,7 +1223,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="13"/>
@@ -892,8 +1232,26 @@
       <c r="M20" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="15">
+        <v>17</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="13">
+        <v>4</v>
+      </c>
+      <c r="V20" s="25"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>18</v>
       </c>
@@ -905,7 +1263,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="13"/>
@@ -914,8 +1272,26 @@
       <c r="M21" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="15">
+        <v>18</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="13">
+        <v>3</v>
+      </c>
+      <c r="V21" s="25"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>19</v>
       </c>
@@ -933,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="13"/>
@@ -942,8 +1318,26 @@
       <c r="M22" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="16">
+        <v>19</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13">
+        <v>2</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
         <v>20</v>
       </c>
@@ -953,7 +1347,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="8"/>
@@ -962,8 +1356,26 @@
       <c r="M23" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="15">
+        <v>20</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="13">
+        <v>1</v>
+      </c>
+      <c r="V23" s="25"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>21</v>
       </c>
@@ -982,8 +1394,26 @@
       <c r="M24" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="15">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="32">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25" s="15">
         <v>16</v>
       </c>
@@ -1012,6 +1442,530 @@
         <v>8</v>
       </c>
       <c r="L25" s="16">
+        <v>7</v>
+      </c>
+      <c r="P25" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>15</v>
+      </c>
+      <c r="R25" s="16">
+        <v>14</v>
+      </c>
+      <c r="S25" s="16">
+        <v>13</v>
+      </c>
+      <c r="T25" s="16">
+        <v>12</v>
+      </c>
+      <c r="U25" s="16">
+        <v>11</v>
+      </c>
+      <c r="V25" s="16">
+        <v>10</v>
+      </c>
+      <c r="W25" s="16">
+        <v>9</v>
+      </c>
+      <c r="X25" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="42">
+        <v>16</v>
+      </c>
+      <c r="D29" s="42">
+        <v>15</v>
+      </c>
+      <c r="E29" s="42">
+        <v>14</v>
+      </c>
+      <c r="F29" s="42">
+        <v>13</v>
+      </c>
+      <c r="G29" s="42">
+        <v>12</v>
+      </c>
+      <c r="H29" s="42">
+        <v>11</v>
+      </c>
+      <c r="I29" s="16">
+        <v>10</v>
+      </c>
+      <c r="J29" s="16">
+        <v>9</v>
+      </c>
+      <c r="K29" s="16">
+        <v>8</v>
+      </c>
+      <c r="L29" s="16">
+        <v>7</v>
+      </c>
+      <c r="P29" s="42">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>15</v>
+      </c>
+      <c r="R29" s="42">
+        <v>14</v>
+      </c>
+      <c r="S29" s="42">
+        <v>13</v>
+      </c>
+      <c r="T29" s="42">
+        <v>12</v>
+      </c>
+      <c r="U29" s="42">
+        <v>11</v>
+      </c>
+      <c r="V29" s="16">
+        <v>10</v>
+      </c>
+      <c r="W29" s="16">
+        <v>9</v>
+      </c>
+      <c r="X29" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="42">
+        <v>14</v>
+      </c>
+      <c r="C30" s="36">
+        <v>2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>19</v>
+      </c>
+      <c r="G30" s="27">
+        <v>18</v>
+      </c>
+      <c r="H30" s="27">
+        <v>17</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="15">
+        <v>14</v>
+      </c>
+      <c r="O30" s="42">
+        <v>14</v>
+      </c>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27">
+        <v>11</v>
+      </c>
+      <c r="T30" s="27">
+        <v>10</v>
+      </c>
+      <c r="U30" s="27">
+        <v>9</v>
+      </c>
+      <c r="V30" s="40"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="42">
+        <v>15</v>
+      </c>
+      <c r="C31" s="37">
+        <v>3</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="13">
+        <v>13</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="13">
+        <v>16</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="15">
+        <v>15</v>
+      </c>
+      <c r="O31" s="42">
+        <v>15</v>
+      </c>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="13">
+        <v>9</v>
+      </c>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="13">
+        <v>8</v>
+      </c>
+      <c r="V31" s="41"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="42">
+        <v>16</v>
+      </c>
+      <c r="C32" s="37">
+        <v>4</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="13">
+        <v>12</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="13">
+        <v>14</v>
+      </c>
+      <c r="H32" s="13">
+        <v>15</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="15">
+        <v>16</v>
+      </c>
+      <c r="O32" s="42">
+        <v>16</v>
+      </c>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="13">
+        <v>8</v>
+      </c>
+      <c r="S32" s="41"/>
+      <c r="T32" s="13">
+        <v>6</v>
+      </c>
+      <c r="U32" s="13">
+        <v>7</v>
+      </c>
+      <c r="V32" s="14"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="42">
+        <v>17</v>
+      </c>
+      <c r="C33" s="37">
+        <v>5</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="13">
+        <v>11</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="13">
+        <v>13</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="15">
+        <v>17</v>
+      </c>
+      <c r="O33" s="42">
+        <v>17</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="13">
+        <v>7</v>
+      </c>
+      <c r="S33" s="41"/>
+      <c r="T33" s="13">
+        <v>5</v>
+      </c>
+      <c r="U33" s="41"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="42">
+        <v>18</v>
+      </c>
+      <c r="C34" s="37">
+        <v>6</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="13">
+        <v>10</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="13">
+        <v>12</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="15">
+        <v>18</v>
+      </c>
+      <c r="O34" s="42">
+        <v>18</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="13">
+        <v>6</v>
+      </c>
+      <c r="S34" s="41"/>
+      <c r="T34" s="13">
+        <v>4</v>
+      </c>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="42">
+        <v>19</v>
+      </c>
+      <c r="C35" s="37">
+        <v>7</v>
+      </c>
+      <c r="D35" s="13">
+        <v>8</v>
+      </c>
+      <c r="E35" s="13">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13">
+        <v>10</v>
+      </c>
+      <c r="G35" s="13">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13">
+        <v>12</v>
+      </c>
+      <c r="I35" s="14">
+        <v>13</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="15">
+        <v>19</v>
+      </c>
+      <c r="O35" s="42">
+        <v>19</v>
+      </c>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13">
+        <v>5</v>
+      </c>
+      <c r="S35" s="13">
+        <v>4</v>
+      </c>
+      <c r="T35" s="13">
+        <v>3</v>
+      </c>
+      <c r="U35" s="13">
+        <v>2</v>
+      </c>
+      <c r="V35" s="14">
+        <v>3</v>
+      </c>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="42">
+        <v>20</v>
+      </c>
+      <c r="C36" s="34">
+        <v>8</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="13">
+        <v>13</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="15">
+        <v>20</v>
+      </c>
+      <c r="O36" s="42">
+        <v>20</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="13">
+        <v>1</v>
+      </c>
+      <c r="V36" s="41"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="42">
+        <v>21</v>
+      </c>
+      <c r="C37" s="38">
+        <v>9</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="32">
+        <v>14</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="15">
+        <v>21</v>
+      </c>
+      <c r="O37" s="42">
+        <v>21</v>
+      </c>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="32">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="42">
+        <v>16</v>
+      </c>
+      <c r="D38" s="15">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16">
+        <v>14</v>
+      </c>
+      <c r="F38" s="16">
+        <v>13</v>
+      </c>
+      <c r="G38" s="16">
+        <v>12</v>
+      </c>
+      <c r="H38" s="16">
+        <v>11</v>
+      </c>
+      <c r="I38" s="16">
+        <v>10</v>
+      </c>
+      <c r="J38" s="16">
+        <v>9</v>
+      </c>
+      <c r="K38" s="16">
+        <v>8</v>
+      </c>
+      <c r="L38" s="16">
+        <v>7</v>
+      </c>
+      <c r="P38" s="42">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>15</v>
+      </c>
+      <c r="R38" s="16">
+        <v>14</v>
+      </c>
+      <c r="S38" s="16">
+        <v>13</v>
+      </c>
+      <c r="T38" s="16">
+        <v>12</v>
+      </c>
+      <c r="U38" s="16">
+        <v>11</v>
+      </c>
+      <c r="V38" s="16">
+        <v>10</v>
+      </c>
+      <c r="W38" s="16">
+        <v>9</v>
+      </c>
+      <c r="X38" s="16">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="16">
         <v>7</v>
       </c>
     </row>
